--- a/application/plugins/Stock_price_list/views/StockPriceList.xlsx
+++ b/application/plugins/Stock_price_list/views/StockPriceList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="3588" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +78,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -289,8 +300,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -298,14 +310,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -313,6 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -322,54 +334,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -672,7 +654,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,12 +665,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="12" t="s">
@@ -707,37 +689,37 @@
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
